--- a/biology/Microbiologie/Cthulhu_macrofasciculumque/Cthulhu_macrofasciculumque.xlsx
+++ b/biology/Microbiologie/Cthulhu_macrofasciculumque/Cthulhu_macrofasciculumque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cthulhu macrofasciculumque, unique représentant du genre Cthulhu,  est une espèce d’excavés parabasaliens.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils vivent dans les entrailles des termites Prorhinotermes simplex[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils vivent dans les entrailles des termites Prorhinotermes simplex.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules mesurent de 17 à 24 µm sur 7 à 12 µm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules mesurent de 17 à 24 µm sur 7 à 12 µm.
 Morphologie de l'appareil vegetatif :
 Le Cthulu est un protiste flagellé qui contient un seul noyau anterieur et a une surface cellulaire très lisse. Avec plus de 20 flagelles, il est considéré comme un hypermastigonte (plus de 6 flagelles). 
 </t>
@@ -575,7 +591,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone trophique se situe au pôle postérieur de la cellule. Il peut ingérer des fragments de bois, les plus gros à l'aide d'un pseuopode.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue une division binaire asexuée. Le fuseau mitotique portant les chromosomes lors de la division est extra nucléaire. 
 </t>
@@ -637,7 +657,9 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède un faisceau de 20 flagelles à son extrémité antérieure et peut avoir un flagelle singulier à son extrémité postérieure, qu'il utilise pour nager. Il bat ses flagelles de manière synchrone pour se propulser. 
 </t>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Erick R. James, Noriko Okamoto, Fabien Burki, Rudolf H. Scheffrahn, Patrick J. Keeling et Jonathan H. Badger, « Cthulhu Macrofasciculumque n. g., n. sp. and Cthylla Microfasciculumque n. g., n. sp., a Newly Identified Lineage of Parabasalian Termite Symbionts », PLoS ONE,‎ 18 mars 2013 (PMID 23526991, DOI 10.1371/journal.pone.0058509., lire en ligne)</t>
         </is>
